--- a/tests/le_Update_Times.xlsx
+++ b/tests/le_Update_Times.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8210f83787c5f981/Documents/GitHub/LogicElements/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{667BEF11-9D92-47ED-8245-FD9A9C149588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF35C17-13C0-4EFD-86F1-F4A7B31C9DAE}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{667BEF11-9D92-47ED-8245-FD9A9C149588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B46CF98-3418-4274-B6C9-0E7D3CFB3DE6}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="4140" windowWidth="34170" windowHeight="15435" xr2:uid="{B699E6CA-9989-4110-B8DD-DB05DC3280B6}"/>
+    <workbookView xWindow="1500" yWindow="3495" windowWidth="34170" windowHeight="15435" xr2:uid="{B699E6CA-9989-4110-B8DD-DB05DC3280B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="STM32F4 84MHz" sheetId="1" r:id="rId1"/>
+    <sheet name="STM32F4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'STM32F4 84MHz'!$A$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STM32F4!$A$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Function</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>le_Analog1PWinding.Update()</t>
-  </si>
-  <si>
     <t>64 spc</t>
   </si>
   <si>
@@ -80,14 +77,65 @@
     <t>8 spc</t>
   </si>
   <si>
-    <t>le_Analog3PWinding.Update()</t>
+    <t>2 elements</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>fnc = "atan2(x1, x0) * 180.0 / pi()"</t>
+  </si>
+  <si>
+    <t>fnc = "sqrt(x0^2 + x1^2)"</t>
+  </si>
+  <si>
+    <t>fnc = "sqrt(x0*x0 + x1*x1)"</t>
+  </si>
+  <si>
+    <t>fnc = "(x0 + x1) / (x0 - x1) + x1 / x0 + x0 / x1"</t>
+  </si>
+  <si>
+    <t>3 elements</t>
+  </si>
+  <si>
+    <t>PU = 0.005, DO = 0.005</t>
+  </si>
+  <si>
+    <t>le_Analog1PWinding::Update()</t>
+  </si>
+  <si>
+    <t>le_Math::Update()</t>
+  </si>
+  <si>
+    <t>le_AND::Update()</t>
+  </si>
+  <si>
+    <t>le_OR::Update()</t>
+  </si>
+  <si>
+    <t>le_NOT::Update()</t>
+  </si>
+  <si>
+    <t>le_Ftrig::Update()</t>
+  </si>
+  <si>
+    <t>le_Rtrig::Update()</t>
+  </si>
+  <si>
+    <t>le_Timer::Update()</t>
+  </si>
+  <si>
+    <t>le_Mux&lt;bool&gt;::Update()</t>
+  </si>
+  <si>
+    <t>2x1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +163,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,18 +194,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,6 +223,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,236 +546,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC3FAC2-DBE1-4835-A3F6-1DB5517F72FB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.14230000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>ROUNDUP($B$2*1000000/C5*D5, 0)</f>
         <v>3113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
         <v>480</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.78E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>ROUNDUP($B$2*1000000/C6*D6, 0)</f>
         <v>3115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
         <v>960</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>ROUNDUP($B$2*1000000/C7*D7, 0)</f>
         <v>3465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <v>1920</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f>ROUNDUP($B$2*1000000/C8*D8, 0)</f>
         <v>4183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.25580000000000003</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>ROUNDUP($B$2*1000000/C9*D9, 0)</f>
         <v>5596</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" ref="E10:E14" si="0">ROUNDUP($B$2*1000000/C10*D10, 0)</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
         <v>480</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>960</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.1018</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>8908</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
         <v>1920</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.21970000000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>9612</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3840</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.50539999999999996</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>11056</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="1">ROUNDUP($B$2*1000000/C15*D15, 0)</f>
+        <v>1379</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1920</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16" si="2">ROUNDUP($B$2*1000000/C16*D16, 0)</f>
+        <v>1365</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17" si="3">ROUNDUP($B$2*1000000/C17*D17, 0)</f>
+        <v>1648</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1038</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18" si="4">ROUNDUP($B$2*1000000/C18*D18, 0)</f>
+        <v>2271</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.1176</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E20" si="5">ROUNDUP($B$2*1000000/C19*D19, 0)</f>
+        <v>2573</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20" si="6">ROUNDUP($B$2*1000000/C20*D20, 0)</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E22" si="7">ROUNDUP($B$2*1000000/C21*D21, 0)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23" si="8">ROUNDUP($B$2*1000000/C23*D23, 0)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:E25" si="9">ROUNDUP($B$2*1000000/C24*D24, 0)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25" si="10">ROUNDUP($B$2*1000000/C25*D25, 0)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E27" si="11">ROUNDUP($B$2*1000000/C26*D26, 0)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="11"/>
+        <v>237</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="12">ROUNDUP($B$2*1000000/C28*D28, 0)</f>
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A4:E4" xr:uid="{0AC3FAC2-DBE1-4835-A3F6-1DB5517F72FB}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/le_Update_Times.xlsx
+++ b/tests/le_Update_Times.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8210f83787c5f981/Documents/GitHub/LogicElements/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{667BEF11-9D92-47ED-8245-FD9A9C149588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B46CF98-3418-4274-B6C9-0E7D3CFB3DE6}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{667BEF11-9D92-47ED-8245-FD9A9C149588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAECE266-947F-48BA-ADE1-63D98B2A0A69}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3495" windowWidth="34170" windowHeight="15435" xr2:uid="{B699E6CA-9989-4110-B8DD-DB05DC3280B6}"/>
+    <workbookView xWindow="15840" yWindow="2205" windowWidth="34170" windowHeight="15435" activeTab="1" xr2:uid="{B699E6CA-9989-4110-B8DD-DB05DC3280B6}"/>
   </bookViews>
   <sheets>
     <sheet name="STM32F4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STM32F4!$A$4:$E$4</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Function</t>
   </si>
@@ -129,6 +130,15 @@
   </si>
   <si>
     <t>2x1</t>
+  </si>
+  <si>
+    <t>le_Time::Decode()</t>
+  </si>
+  <si>
+    <t>8 frames</t>
+  </si>
+  <si>
+    <t>exc_time = 45.6 us (max)</t>
   </si>
 </sst>
 </file>
@@ -546,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC3FAC2-DBE1-4835-A3F6-1DB5517F72FB}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +892,7 @@
         <v>0.1176</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E20" si="5">ROUNDUP($B$2*1000000/C19*D19, 0)</f>
+        <f t="shared" ref="E19" si="5">ROUNDUP($B$2*1000000/C19*D19, 0)</f>
         <v>2573</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -972,7 +982,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24:E25" si="9">ROUNDUP($B$2*1000000/C24*D24, 0)</f>
+        <f t="shared" ref="E24" si="9">ROUNDUP($B$2*1000000/C24*D24, 0)</f>
         <v>175</v>
       </c>
     </row>
@@ -1040,6 +1050,20 @@
       <c r="E28" s="1">
         <f t="shared" ref="E28" si="12">ROUNDUP($B$2*1000000/C28*D28, 0)</f>
         <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3830</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1051,4 +1075,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E087AC9-3385-4613-9502-6FD31CAA1344}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>